--- a/biology/Zoologie/Euteleostomi/Euteleostomi.xlsx
+++ b/biology/Zoologie/Euteleostomi/Euteleostomi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euteleostomi (Eutéléostomes) sont un clade qui regroupe les vertébrés gnathostomes possédant un squelette osseux.
 À l'origine, les Eutéléostomes possédaient des os endochondraux, des nageoires possédant des lépidotriches, et des mâchoires possédant un os maxillaire, un os prémaxillaire et un os dentaire. Cependant, beaucoup de ces caractères ont été perdus par certains groupes d'Eutéléostomes, comme les lépidotriches chez les tétrapodes, ou bien les os chez les chondrostéens.
@@ -513,7 +525,9 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Euteleostomi
@@ -560,7 +574,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Joseph S. Nelson, Fishes of the World, New York, Wiley, 2006, 4e éd., 624 p. (ISBN 0-471-25031-7, OCLC 62324946, LCCN 2005033605)</t>
         </is>
